--- a/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,46 +444,6 @@
           <t>mushroom</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>iris</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>spambase</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tic-tac-toe</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sick</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>waveform</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>car</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>vote</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ionosphere</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -495,31 +455,7 @@
         <v>0.9227960354720919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9803076923076923</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9003623188405797</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7413194444444445</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9407603890362511</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.919436052366566</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8766859344894028</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9578544061302682</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9805128205128204</v>
       </c>
     </row>
     <row r="3">
@@ -534,30 +470,6 @@
       <c r="C3" t="n">
         <v>0.7099487179487179</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7135416666666666</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7060123784261716</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7203065134099617</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6809523809523809</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -571,30 +483,6 @@
       <c r="C4" t="n">
         <v>0.7099487179487179</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7135416666666666</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7060123784261716</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7203065134099617</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6809523809523809</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -608,30 +496,6 @@
       <c r="C5" t="n">
         <v>0.7677948717948718</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.6833333333333332</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7695652173913045</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7118055555555555</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6874447391688771</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6963746223564954</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6522157996146435</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5210727969348659</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5619047619047619</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,109 +509,37 @@
       <c r="C6" t="n">
         <v>0.7099487179487179</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7118055555555557</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5999115826702034</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7011494252873564</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.7095238095238096</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MajorityVote</t>
+          <t>MMSR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.704225352112676</v>
+        <v>0.784037558685446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7099487179487179</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7135416666666666</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7060123784261716</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7203065134099617</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6809523809523809</v>
+        <v>0.7610256410256411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MMSR</t>
+          <t>Wawa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.784037558685446</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7610256410256411</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.792391304347826</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8072916666666666</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.784261715296198</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.7804632426988922</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.7658959537572253</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8237547892720306</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.7099487179487179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Wawa</t>
+          <t>GLAD</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -755,30 +547,6 @@
       </c>
       <c r="C9" t="n">
         <v>0.7099487179487179</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7135416666666666</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7060123784261716</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7203065134099617</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6809523809523809</v>
       </c>
     </row>
     <row r="10">
@@ -793,35 +561,11 @@
       <c r="C10" t="n">
         <v>0.7099487179487179</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7135416666666666</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.7060123784261716</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7203065134099617</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.6809523809523809</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GLAD</t>
+          <t>MajorityVote</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -829,30 +573,6 @@
       </c>
       <c r="C11" t="n">
         <v>0.7099487179487179</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7184782608695652</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7135416666666666</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7060123784261716</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7049345417925478</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7177263969171483</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7203065134099617</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.6809523809523809</v>
       </c>
     </row>
     <row r="12">
@@ -866,30 +586,6 @@
       </c>
       <c r="C12" t="n">
         <v>0.7704615384615385</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6833333333333332</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.792391304347826</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.7447916666666666</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7679045092838196</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7688821752265861</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.7129094412331406</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.7714285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9227960354720919</v>
+        <v>0.8930620761606677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9805128205128204</v>
+        <v>0.9823589743589743</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7715179968701095</v>
+        <v>0.782472613458529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7677948717948718</v>
+        <v>0.762051282051282</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.784037558685446</v>
+        <v>0.8085550339071466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7610256410256411</v>
+        <v>0.7965128205128206</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="10">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="11">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.704225352112676</v>
+        <v>0.7219613980177361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7099487179487179</v>
+        <v>0.7292307692307692</v>
       </c>
     </row>
     <row r="12">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.784037558685446</v>
+        <v>0.8038601982263954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7704615384615385</v>
+        <v>0.7669743589743589</v>
       </c>
     </row>
   </sheetData>

--- a/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8930620761606677</v>
+        <v>0.9123630672926448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9823589743589743</v>
+        <v>0.9769230769230769</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7292307692307692</v>
+        <v>0.6621538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7292307692307692</v>
+        <v>0.6621538461538461</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.782472613458529</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="C5" t="n">
-        <v>0.762051282051282</v>
+        <v>0.7489230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7292307692307692</v>
+        <v>0.6621538461538461</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8085550339071466</v>
+        <v>0.7574334898278561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7965128205128206</v>
+        <v>0.7267692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -530,62 +530,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7292307692307692</v>
+        <v>0.6621538461538461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GLAD</t>
+          <t>ZeroBasedSkill</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7292307692307692</v>
+        <v>0.6621538461538461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ZeroBasedSkill</t>
+          <t>MajorityVote</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.6525821596244131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7292307692307692</v>
+        <v>0.6621538461538461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MajorityVote</t>
+          <t>DawidSkene</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7219613980177361</v>
+        <v>0.7660406885758999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7292307692307692</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>DawidSkene</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8038601982263954</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7669743589743589</v>
+        <v>0.7489230769230769</v>
       </c>
     </row>
   </sheetData>

--- a/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC/figure_metrics_mean_over_seeds_per_dataset_per_worker_ACC.xlsx
@@ -455,7 +455,7 @@
         <v>0.9123630672926448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9769230769230769</v>
+        <v>0.9772307692307691</v>
       </c>
     </row>
     <row r="3">
